--- a/biology/Botanique/Phellinus/Phellinus.xlsx
+++ b/biology/Botanique/Phellinus/Phellinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phellinus est un genre de champignons (basidiomycota[1]) agaricomycètes[2] de l'ordre des Hymenochaetales[3], de la famille des Hymenochaetaceae[4], créé par le mycologue français Lucien Quélet en 1886[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phellinus est un genre de champignons (basidiomycota) agaricomycètes de l'ordre des Hymenochaetales, de la famille des Hymenochaetaceae, créé par le mycologue français Lucien Quélet en 1886.
 On recense 453 espèces en l'an 2000. Espèce type du genre : Phellinus igniarius (L.) Quél. (1886)
 Chair brune, sans boucles, à hyménium orné de spinules brunes comme les Hydnae (Asterodon (en)) et Porae (Phellinus… Inonotus) tous classés aujourd'hui dans les Hymenochaetaceae. 
-Fomitoporia Murr. 1907[6] : Bull. trimestriel Soc. Mycol. France (note 24). Espèce type: Fomitiporia langloisii Murrill (1907) Nom correct:  Phellinus Quél., Enchir. fung. (Paris): 172 (1886)
+Fomitoporia Murr. 1907 : Bull. trimestriel Soc. Mycol. France (note 24). Espèce type: Fomitiporia langloisii Murrill (1907) Nom correct:  Phellinus Quél., Enchir. fung. (Paris): 172 (1886)
 Les espèces classées en Fomitoporia ont des spores subglobuleuses à paroi dextrinoïde et fortement cyanophile. : P. robustus, punctatus, erectus, hippophaeocola, pseudopunctatus.
 </t>
         </is>
@@ -515,9 +527,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Australie, les Aborigènes ont utilisé les fruits de Phellinus à des fins médicinales[7]. La fumée des fruits brûlés était inhalée par les personnes souffrant de maux de gorge. Les raclures des fruits légèrement carbonisés étaient bues avec de l'eau pour traiter la toux, les maux de gorge, les "mauvaises poitrines", les fièvres et les diarrhées. On ne sait pas exactement quelles espèces de Phellinus étaient utilisées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Australie, les Aborigènes ont utilisé les fruits de Phellinus à des fins médicinales. La fumée des fruits brûlés était inhalée par les personnes souffrant de maux de gorge. Les raclures des fruits légèrement carbonisés étaient bues avec de l'eau pour traiter la toux, les maux de gorge, les "mauvaises poitrines", les fièvres et les diarrhées. On ne sait pas exactement quelles espèces de Phellinus étaient utilisées.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Mycothérapie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation de champignons médicinaux comme aliment et comme thé est courante en Corée. Le champignon Phellinus linteus  est couramment utilisé. Il est connu en Corée sous le nom de Song-gen.
 </t>
@@ -577,7 +593,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amauroderma, Antrodiella, Aurificaria,  Climacocystis, Cyclomyces, Daedalea, Fomes, Fomitopsis, Gloeophyllum, Hapalopilus, Hydnochaete,  Inocutis, Loweporus, Mucronoporus, Nigrofomes, Onnia, Phaeolus, Phylloporia, Polyporus, Pseudoinonotus,  Pycnoporellus, Pyrofomes,  Pyropolyporus, Pyrrhoderma, Scindalma, Spongipellis, Xanthochrous. 
 </t>
@@ -608,7 +626,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phellinus chrysoloma (Fr.) Donk 1971
